--- a/pub/Operations/ServiceLevelAgreements/2013.xlsx
+++ b/pub/Operations/ServiceLevelAgreements/2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23206"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7680" yWindow="0" windowWidth="25600" windowHeight="19360" tabRatio="654"/>
+    <workbookView xWindow="1700" yWindow="0" windowWidth="25600" windowHeight="19360" tabRatio="654"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="62">
   <si>
     <t>Resource/Name</t>
   </si>
@@ -647,8 +647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A52" sqref="A52:XFD52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -726,11 +726,11 @@
       </c>
       <c r="G3" s="3">
         <f>May!C3</f>
-        <v>0</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="H3" s="3">
         <f>Jun!C3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" s="3">
         <f>Jul!C3</f>
@@ -782,11 +782,11 @@
       </c>
       <c r="G4" s="3">
         <f>May!C4</f>
-        <v>0</v>
+        <v>0.99480000000000002</v>
       </c>
       <c r="H4" s="3">
         <f>Jun!C4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="3">
         <f>Jul!C4</f>
@@ -838,11 +838,11 @@
       </c>
       <c r="G5" s="3">
         <f>May!C5</f>
-        <v>0</v>
+        <v>0.98919999999999997</v>
       </c>
       <c r="H5" s="3">
         <f>Jun!C5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="3">
         <f>Jul!C5</f>
@@ -894,11 +894,11 @@
       </c>
       <c r="G6" s="3">
         <f>May!C6</f>
-        <v>0</v>
+        <v>0.99219999999999997</v>
       </c>
       <c r="H6" s="3">
         <f>Jun!C6</f>
-        <v>0</v>
+        <v>0.96050000000000002</v>
       </c>
       <c r="I6" s="3">
         <f>Jul!C6</f>
@@ -950,11 +950,11 @@
       </c>
       <c r="G7" s="3">
         <f>May!C7</f>
-        <v>0</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="H7" s="3">
         <f>Jun!C7</f>
-        <v>0</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="I7" s="3">
         <f>Jul!C7</f>
@@ -1006,11 +1006,11 @@
       </c>
       <c r="G8" s="3">
         <f>May!C8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="3">
         <f>Jun!C8</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="I8" s="3">
         <f>Jul!C8</f>
@@ -1062,11 +1062,11 @@
       </c>
       <c r="G9" s="3">
         <f>May!C9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="3">
         <f>Jun!C9</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="I9" s="3">
         <f>Jul!C9</f>
@@ -1118,11 +1118,11 @@
       </c>
       <c r="G10" s="3">
         <f>May!C10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
         <f>Jun!C10</f>
-        <v>0</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="I10" s="3">
         <f>Jul!C10</f>
@@ -1174,11 +1174,11 @@
       </c>
       <c r="G11" s="3">
         <f>May!C11</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="H11" s="3">
         <f>Jun!C11</f>
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="I11" s="3">
         <f>Jul!C11</f>
@@ -1230,11 +1230,11 @@
       </c>
       <c r="G12" s="3">
         <f>May!C12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="3">
         <f>Jun!C12</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="I12" s="3">
         <f>Jul!C12</f>
@@ -1286,11 +1286,11 @@
       </c>
       <c r="G13" s="3">
         <f>May!C13</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="H13" s="3">
         <f>Jun!C13</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="I13" s="3">
         <f>Jul!C13</f>
@@ -1342,11 +1342,11 @@
       </c>
       <c r="G14" s="3">
         <f>May!C14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="3">
         <f>Jun!C14</f>
-        <v>0</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="I14" s="3">
         <f>Jul!C14</f>
@@ -1398,11 +1398,11 @@
       </c>
       <c r="G15" s="3">
         <f>May!C15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
         <f>Jun!C15</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="I15" s="3">
         <f>Jul!C15</f>
@@ -1454,11 +1454,11 @@
       </c>
       <c r="G16" s="3">
         <f>May!C16</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="H16" s="3">
         <f>Jun!C16</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="I16" s="3">
         <f>Jul!C16</f>
@@ -1510,11 +1510,11 @@
       </c>
       <c r="G17" s="3">
         <f>May!C17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
         <f>Jun!C17</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="I17" s="3">
         <f>Jul!C17</f>
@@ -1566,11 +1566,11 @@
       </c>
       <c r="G18" s="3">
         <f>May!C18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="3">
         <f>Jun!C18</f>
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="I18" s="3">
         <f>Jul!C18</f>
@@ -1622,11 +1622,11 @@
       </c>
       <c r="G19" s="3">
         <f>May!C19</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="H19" s="3">
         <f>Jun!C19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I19" s="3">
         <f>Jul!C19</f>
@@ -1678,11 +1678,11 @@
       </c>
       <c r="G20" s="3">
         <f>May!C20</f>
-        <v>0</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="H20" s="3">
         <f>Jun!C20</f>
-        <v>0</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="I20" s="3">
         <f>Jul!C20</f>
@@ -1734,11 +1734,11 @@
       </c>
       <c r="G21" s="3">
         <f>May!C21</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="H21" s="3">
         <f>Jun!C21</f>
-        <v>0</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="I21" s="3">
         <f>Jul!C21</f>
@@ -1790,11 +1790,11 @@
       </c>
       <c r="G22" s="3">
         <f>May!C22</f>
-        <v>0</v>
+        <v>0.99760000000000004</v>
       </c>
       <c r="H22" s="3">
         <f>Jun!C22</f>
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="I22" s="3">
         <f>Jul!C22</f>
@@ -1837,43 +1837,43 @@
         <v>0.72219999999999995</v>
       </c>
       <c r="E23" s="3">
-        <f>Mar!C22</f>
-        <v>0.90910000000000002</v>
+        <f>Mar!C23</f>
+        <v>0.82779999999999998</v>
       </c>
       <c r="F23" s="3">
-        <f>Apr!C22</f>
-        <v>0.99960000000000004</v>
+        <f>Apr!C23</f>
+        <v>0.9698</v>
       </c>
       <c r="G23" s="3">
-        <f>May!C22</f>
-        <v>0</v>
+        <f>May!C23</f>
+        <v>0.96950000000000003</v>
       </c>
       <c r="H23" s="3">
-        <f>Jun!C22</f>
-        <v>0</v>
+        <f>Jun!C23</f>
+        <v>0.99029999999999996</v>
       </c>
       <c r="I23" s="3">
-        <f>Jul!C22</f>
+        <f>Jul!C23</f>
         <v>0</v>
       </c>
       <c r="J23" s="3">
-        <f>Aug!C22</f>
+        <f>Aug!C23</f>
         <v>0</v>
       </c>
       <c r="K23" s="3">
-        <f>Sep!C22</f>
+        <f>Sep!C23</f>
         <v>0</v>
       </c>
       <c r="L23" s="3">
-        <f>Oct!C22</f>
+        <f>Oct!C23</f>
         <v>0</v>
       </c>
       <c r="M23" s="3">
-        <f>Nov!C22</f>
+        <f>Nov!C23</f>
         <v>0</v>
       </c>
       <c r="N23" s="3">
-        <f>Dec!C22</f>
+        <f>Dec!C23</f>
         <v>0</v>
       </c>
     </row>
@@ -1893,43 +1893,43 @@
         <v>1</v>
       </c>
       <c r="E24" s="3">
-        <f>Mar!C23</f>
-        <v>0.82779999999999998</v>
+        <f>Mar!C24</f>
+        <v>0.9899</v>
       </c>
       <c r="F24" s="3">
-        <f>Apr!C23</f>
-        <v>0.9698</v>
+        <f>Apr!C24</f>
+        <v>0.99760000000000004</v>
       </c>
       <c r="G24" s="3">
-        <f>May!C23</f>
-        <v>0</v>
+        <f>May!C24</f>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
-        <f>Jun!C23</f>
-        <v>0</v>
+        <f>Jun!C24</f>
+        <v>0.99950000000000006</v>
       </c>
       <c r="I24" s="3">
-        <f>Jul!C23</f>
+        <f>Jul!C24</f>
         <v>0</v>
       </c>
       <c r="J24" s="3">
-        <f>Aug!C23</f>
+        <f>Aug!C24</f>
         <v>0</v>
       </c>
       <c r="K24" s="3">
-        <f>Sep!C23</f>
+        <f>Sep!C24</f>
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <f>Oct!C23</f>
+        <f>Oct!C24</f>
         <v>0</v>
       </c>
       <c r="M24" s="3">
-        <f>Nov!C23</f>
+        <f>Nov!C24</f>
         <v>0</v>
       </c>
       <c r="N24" s="3">
-        <f>Dec!C23</f>
+        <f>Dec!C24</f>
         <v>0</v>
       </c>
     </row>
@@ -1949,43 +1949,43 @@
         <v>0.999</v>
       </c>
       <c r="E25" s="3">
-        <f>Mar!C24</f>
-        <v>0.9899</v>
+        <f>Mar!C25</f>
+        <v>0.99770000000000003</v>
       </c>
       <c r="F25" s="3">
-        <f>Apr!C24</f>
-        <v>0.99760000000000004</v>
+        <f>Apr!C25</f>
+        <v>0.99860000000000004</v>
       </c>
       <c r="G25" s="3">
-        <f>May!C24</f>
-        <v>0</v>
+        <f>May!C25</f>
+        <v>0.99950000000000006</v>
       </c>
       <c r="H25" s="3">
-        <f>Jun!C24</f>
-        <v>0</v>
+        <f>Jun!C25</f>
+        <v>0.99909999999999999</v>
       </c>
       <c r="I25" s="3">
-        <f>Jul!C24</f>
+        <f>Jul!C25</f>
         <v>0</v>
       </c>
       <c r="J25" s="3">
-        <f>Aug!C24</f>
+        <f>Aug!C25</f>
         <v>0</v>
       </c>
       <c r="K25" s="3">
-        <f>Sep!C24</f>
+        <f>Sep!C25</f>
         <v>0</v>
       </c>
       <c r="L25" s="3">
-        <f>Oct!C24</f>
+        <f>Oct!C25</f>
         <v>0</v>
       </c>
       <c r="M25" s="3">
-        <f>Nov!C24</f>
+        <f>Nov!C25</f>
         <v>0</v>
       </c>
       <c r="N25" s="3">
-        <f>Dec!C24</f>
+        <f>Dec!C25</f>
         <v>0</v>
       </c>
     </row>
@@ -2005,43 +2005,43 @@
         <v>0.99950000000000006</v>
       </c>
       <c r="E26" s="3">
-        <f>Mar!C25</f>
-        <v>0.99770000000000003</v>
+        <f>Mar!C26</f>
+        <v>1</v>
       </c>
       <c r="F26" s="3">
-        <f>Apr!C25</f>
-        <v>0.99860000000000004</v>
+        <f>Apr!C26</f>
+        <v>0.99709999999999999</v>
       </c>
       <c r="G26" s="3">
-        <f>May!C25</f>
-        <v>0</v>
+        <f>May!C26</f>
+        <v>0.99950000000000006</v>
       </c>
       <c r="H26" s="3">
-        <f>Jun!C25</f>
-        <v>0</v>
+        <f>Jun!C26</f>
+        <v>0.999</v>
       </c>
       <c r="I26" s="3">
-        <f>Jul!C25</f>
+        <f>Jul!C26</f>
         <v>0</v>
       </c>
       <c r="J26" s="3">
-        <f>Aug!C25</f>
+        <f>Aug!C26</f>
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <f>Sep!C25</f>
+        <f>Sep!C26</f>
         <v>0</v>
       </c>
       <c r="L26" s="3">
-        <f>Oct!C25</f>
+        <f>Oct!C26</f>
         <v>0</v>
       </c>
       <c r="M26" s="3">
-        <f>Nov!C25</f>
+        <f>Nov!C26</f>
         <v>0</v>
       </c>
       <c r="N26" s="3">
-        <f>Dec!C25</f>
+        <f>Dec!C26</f>
         <v>0</v>
       </c>
     </row>
@@ -2061,43 +2061,43 @@
         <v>0.99950000000000006</v>
       </c>
       <c r="E27" s="3">
-        <f>Mar!C26</f>
-        <v>1</v>
+        <f>Mar!C27</f>
+        <v>0.99860000000000004</v>
       </c>
       <c r="F27" s="3">
-        <f>Apr!C26</f>
-        <v>0.99709999999999999</v>
+        <f>Apr!C27</f>
+        <v>0.99429999999999996</v>
       </c>
       <c r="G27" s="3">
-        <f>May!C26</f>
-        <v>0</v>
+        <f>May!C27</f>
+        <v>0.99950000000000006</v>
       </c>
       <c r="H27" s="3">
-        <f>Jun!C26</f>
-        <v>0</v>
+        <f>Jun!C27</f>
+        <v>0.99950000000000006</v>
       </c>
       <c r="I27" s="3">
-        <f>Jul!C26</f>
+        <f>Jul!C27</f>
         <v>0</v>
       </c>
       <c r="J27" s="3">
-        <f>Aug!C26</f>
+        <f>Aug!C27</f>
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <f>Sep!C26</f>
+        <f>Sep!C27</f>
         <v>0</v>
       </c>
       <c r="L27" s="3">
-        <f>Oct!C26</f>
+        <f>Oct!C27</f>
         <v>0</v>
       </c>
       <c r="M27" s="3">
-        <f>Nov!C26</f>
+        <f>Nov!C27</f>
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <f>Dec!C26</f>
+        <f>Dec!C27</f>
         <v>0</v>
       </c>
     </row>
@@ -2130,28 +2130,28 @@
         <v>5</v>
       </c>
       <c r="E33" s="3">
-        <f>AVERAGE(C3:E3)</f>
+        <f t="shared" ref="E33:E48" si="0">AVERAGE(C3:E3)</f>
         <v>0.99980000000000002</v>
       </c>
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3">
-        <f>AVERAGE(F3:H3)</f>
-        <v>0.33326666666666666</v>
+        <f t="shared" ref="H33:H53" si="1">AVERAGE(F3:H3)</f>
+        <v>0.99980000000000002</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="3">
-        <f>AVERAGE(I3:K3)</f>
+        <f t="shared" ref="K33:K53" si="2">AVERAGE(I3:K3)</f>
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <f>AVERAGE(L3:N3)</f>
+        <f t="shared" ref="N33:N53" si="3">AVERAGE(L3:N3)</f>
         <v>0</v>
       </c>
       <c r="P33" s="1">
-        <f>AVERAGE(C3:N3)</f>
-        <v>0.33326666666666666</v>
+        <f t="shared" ref="P33:P53" si="4">AVERAGE(C3:N3)</f>
+        <v>0.49990000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2162,28 +2162,28 @@
         <v>5</v>
       </c>
       <c r="E34" s="3">
-        <f>AVERAGE(C4:E4)</f>
+        <f t="shared" si="0"/>
         <v>0.99160000000000004</v>
       </c>
       <c r="F34" s="4"/>
       <c r="G34" s="4"/>
       <c r="H34" s="3">
-        <f>AVERAGE(F4:H4)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="1"/>
+        <v>0.99826666666666675</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="3">
-        <f>AVERAGE(I4:K4)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N34" s="3">
-        <f>AVERAGE(L4:N4)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P34" s="1">
-        <f>AVERAGE(C4:N4)</f>
-        <v>0.33123333333333332</v>
+        <f t="shared" si="4"/>
+        <v>0.49746666666666667</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2194,28 +2194,28 @@
         <v>5</v>
       </c>
       <c r="E35" s="3">
-        <f>AVERAGE(C5:E5)</f>
+        <f t="shared" si="0"/>
         <v>0.99516666666666664</v>
       </c>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="3">
-        <f>AVERAGE(F5:H5)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="1"/>
+        <v>0.99639999999999995</v>
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="3">
-        <f>AVERAGE(I5:K5)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <f>AVERAGE(L5:N5)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P35" s="1">
-        <f>AVERAGE(C5:N5)</f>
-        <v>0.332125</v>
+        <f t="shared" si="4"/>
+        <v>0.49789166666666668</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2226,28 +2226,28 @@
         <v>9</v>
       </c>
       <c r="E36" s="3">
-        <f>AVERAGE(C6:E6)</f>
+        <f t="shared" si="0"/>
         <v>0.99773333333333325</v>
       </c>
       <c r="F36" s="4"/>
       <c r="G36" s="4"/>
       <c r="H36" s="3">
-        <f>AVERAGE(F6:H6)</f>
-        <v>0.33276666666666666</v>
+        <f t="shared" si="1"/>
+        <v>0.98366666666666669</v>
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="3">
-        <f>AVERAGE(I6:K6)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N36" s="3">
-        <f>AVERAGE(L6:N6)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P36" s="1">
-        <f>AVERAGE(C6:N6)</f>
-        <v>0.332625</v>
+        <f t="shared" si="4"/>
+        <v>0.49534999999999996</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2258,28 +2258,28 @@
         <v>11</v>
       </c>
       <c r="E37" s="3">
-        <f>AVERAGE(C7:E7)</f>
+        <f t="shared" si="0"/>
         <v>0.99963333333333326</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
       <c r="H37" s="3">
-        <f>AVERAGE(F7:H7)</f>
-        <v>0.33326666666666666</v>
+        <f t="shared" si="1"/>
+        <v>0.99973333333333336</v>
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="3">
-        <f>AVERAGE(I7:K7)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N37" s="3">
-        <f>AVERAGE(L7:N7)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P37" s="1">
-        <f>AVERAGE(C7:N7)</f>
-        <v>0.33322499999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.49984166666666668</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2290,28 +2290,28 @@
         <v>12</v>
       </c>
       <c r="E38" s="3">
-        <f>AVERAGE(C8:E8)</f>
+        <f t="shared" si="0"/>
         <v>0.9996666666666667</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
       <c r="H38" s="3">
-        <f>AVERAGE(F8:H8)</f>
-        <v>0.33329999999999999</v>
+        <f t="shared" si="1"/>
+        <v>0.99980000000000002</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="3">
-        <f>AVERAGE(I8:K8)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N38" s="3">
-        <f>AVERAGE(L8:N8)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P38" s="1">
-        <f>AVERAGE(C8:N8)</f>
-        <v>0.33324166666666666</v>
+        <f t="shared" si="4"/>
+        <v>0.49986666666666668</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2322,28 +2322,28 @@
         <v>11</v>
       </c>
       <c r="E39" s="3">
-        <f>AVERAGE(C9:E9)</f>
+        <f t="shared" si="0"/>
         <v>0.99960000000000004</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="3">
-        <f>AVERAGE(F9:H9)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="1"/>
+        <v>0.99983333333333346</v>
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="3">
-        <f>AVERAGE(I9:K9)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N39" s="3">
-        <f>AVERAGE(L9:N9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P39" s="1">
-        <f>AVERAGE(C9:N9)</f>
-        <v>0.33323333333333333</v>
+        <f t="shared" si="4"/>
+        <v>0.49985833333333335</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2354,28 +2354,28 @@
         <v>12</v>
       </c>
       <c r="E40" s="3">
-        <f>AVERAGE(C10:E10)</f>
+        <f t="shared" si="0"/>
         <v>0.99936666666666663</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="H40" s="3">
-        <f>AVERAGE(F10:H10)</f>
-        <v>0.33326666666666666</v>
+        <f t="shared" si="1"/>
+        <v>0.99969999999999992</v>
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="3">
-        <f>AVERAGE(I10:K10)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N40" s="3">
-        <f>AVERAGE(L10:N10)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P40" s="1">
-        <f>AVERAGE(C10:N10)</f>
-        <v>0.33315833333333333</v>
+        <f t="shared" si="4"/>
+        <v>0.49976666666666664</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2386,28 +2386,28 @@
         <v>15</v>
       </c>
       <c r="E41" s="3">
-        <f>AVERAGE(C11:E11)</f>
+        <f t="shared" si="0"/>
         <v>0.99929999999999997</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="H41" s="3">
-        <f>AVERAGE(F11:H11)</f>
-        <v>0.33310000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.99926666666666675</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="3">
-        <f>AVERAGE(I11:K11)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N41" s="3">
-        <f>AVERAGE(L11:N11)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P41" s="1">
-        <f>AVERAGE(C11:N11)</f>
-        <v>0.33310000000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.4996416666666666</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2418,28 +2418,28 @@
         <v>17</v>
       </c>
       <c r="E42" s="3">
-        <f>AVERAGE(C12:E12)</f>
+        <f t="shared" si="0"/>
         <v>0.99736666666666662</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="H42" s="3">
-        <f>AVERAGE(F12:H12)</f>
-        <v>0.33316666666666667</v>
+        <f t="shared" si="1"/>
+        <v>0.9996666666666667</v>
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="3">
-        <f>AVERAGE(I12:K12)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N42" s="3">
-        <f>AVERAGE(L12:N12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P42" s="1">
-        <f>AVERAGE(C12:N12)</f>
-        <v>0.33263333333333334</v>
+        <f t="shared" si="4"/>
+        <v>0.49925833333333336</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2450,28 +2450,28 @@
         <v>17</v>
       </c>
       <c r="E43" s="3">
-        <f>AVERAGE(C13:E13)</f>
+        <f t="shared" si="0"/>
         <v>0.99923333333333331</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="H43" s="3">
-        <f>AVERAGE(F13:H13)</f>
-        <v>0.33300000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.99933333333333341</v>
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="3">
-        <f>AVERAGE(I13:K13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N43" s="3">
-        <f>AVERAGE(L13:N13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P43" s="1">
-        <f>AVERAGE(C13:N13)</f>
-        <v>0.33305833333333335</v>
+        <f t="shared" si="4"/>
+        <v>0.49964166666666671</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2482,28 +2482,28 @@
         <v>20</v>
       </c>
       <c r="E44" s="3">
-        <f>AVERAGE(C14:E14)</f>
+        <f t="shared" si="0"/>
         <v>0.99846666666666672</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
       <c r="H44" s="3">
-        <f>AVERAGE(F14:H14)</f>
-        <v>0.33326666666666666</v>
+        <f t="shared" si="1"/>
+        <v>0.99986666666666668</v>
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="3">
-        <f>AVERAGE(I14:K14)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N44" s="3">
-        <f>AVERAGE(L14:N14)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P44" s="1">
-        <f>AVERAGE(C14:N14)</f>
-        <v>0.33293333333333336</v>
+        <f t="shared" si="4"/>
+        <v>0.49958333333333343</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2514,28 +2514,28 @@
         <v>22</v>
       </c>
       <c r="E45" s="3">
-        <f>AVERAGE(C15:E15)</f>
+        <f t="shared" si="0"/>
         <v>0.9996666666666667</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
       <c r="H45" s="3">
-        <f>AVERAGE(F15:H15)</f>
-        <v>0.3328666666666667</v>
+        <f t="shared" si="1"/>
+        <v>0.99936666666666663</v>
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="3">
-        <f>AVERAGE(I15:K15)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N45" s="3">
-        <f>AVERAGE(L15:N15)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P45" s="1">
-        <f>AVERAGE(C15:N15)</f>
-        <v>0.33313333333333334</v>
+        <f t="shared" si="4"/>
+        <v>0.49975833333333336</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2546,28 +2546,28 @@
         <v>22</v>
       </c>
       <c r="E46" s="3">
-        <f>AVERAGE(C16:E16)</f>
+        <f t="shared" si="0"/>
         <v>0.999</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
       <c r="H46" s="3">
-        <f>AVERAGE(F16:H16)</f>
-        <v>0.3328666666666667</v>
+        <f t="shared" si="1"/>
+        <v>0.99920000000000009</v>
       </c>
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="3">
-        <f>AVERAGE(I16:K16)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <f>AVERAGE(L16:N16)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P46" s="1">
-        <f>AVERAGE(C16:N16)</f>
-        <v>0.33296666666666669</v>
+        <f t="shared" si="4"/>
+        <v>0.49954999999999999</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2578,28 +2578,28 @@
         <v>25</v>
       </c>
       <c r="E47" s="3">
-        <f>AVERAGE(C17:E17)</f>
+        <f t="shared" si="0"/>
         <v>0.99913333333333343</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
       <c r="H47" s="3">
-        <f>AVERAGE(F17:H17)</f>
-        <v>0.3328666666666667</v>
+        <f t="shared" si="1"/>
+        <v>0.99936666666666663</v>
       </c>
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="3">
-        <f>AVERAGE(I17:K17)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <f>AVERAGE(L17:N17)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P47" s="1">
-        <f>AVERAGE(C17:N17)</f>
-        <v>0.33300000000000002</v>
+        <f t="shared" si="4"/>
+        <v>0.49962500000000004</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2610,28 +2610,28 @@
         <v>25</v>
       </c>
       <c r="E48" s="3">
-        <f>AVERAGE(C18:E18)</f>
+        <f t="shared" si="0"/>
         <v>0.99799999999999989</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
       <c r="H48" s="3">
-        <f>AVERAGE(F18:H18)</f>
-        <v>0.33306666666666668</v>
+        <f t="shared" si="1"/>
+        <v>0.99940000000000007</v>
       </c>
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="3">
-        <f>AVERAGE(I18:K18)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <f>AVERAGE(L18:N18)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P48" s="1">
-        <f>AVERAGE(C18:N18)</f>
-        <v>0.33276666666666666</v>
+        <f t="shared" si="4"/>
+        <v>0.49934999999999996</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2647,22 +2647,22 @@
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
       <c r="H49" s="3">
-        <f>AVERAGE(F19:H19)</f>
-        <v>0.33333333333333331</v>
+        <f t="shared" si="1"/>
+        <v>0.99983333333333346</v>
       </c>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="3">
-        <f>AVERAGE(I19:K19)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N49" s="3">
-        <f>AVERAGE(L19:N19)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P49" s="1">
-        <f>AVERAGE(C19:N19)</f>
-        <v>0.32953333333333334</v>
+        <f t="shared" si="4"/>
+        <v>0.49615833333333331</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -2679,22 +2679,22 @@
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
       <c r="H50" s="3">
-        <f>AVERAGE(F20:H20)</f>
-        <v>0.33326666666666666</v>
+        <f t="shared" si="1"/>
+        <v>0.99980000000000002</v>
       </c>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="3">
-        <f>AVERAGE(I20:K20)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N50" s="3">
-        <f>AVERAGE(L20:N20)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P50" s="1">
-        <f>AVERAGE(C20:N20)</f>
-        <v>0.33329999999999999</v>
+        <f t="shared" si="4"/>
+        <v>0.49993333333333334</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -2712,21 +2712,21 @@
       <c r="G51" s="4"/>
       <c r="H51" s="3">
         <f>AVERAGE(F21:H21)</f>
-        <v>0.33326666666666666</v>
+        <v>0.99946666666666673</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="3">
-        <f>AVERAGE(I21:K21)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="N51" s="3">
-        <f>AVERAGE(L21:N21)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="P51" s="1">
-        <f>AVERAGE(C21:N21)</f>
-        <v>0.33311666666666667</v>
+        <f t="shared" si="4"/>
+        <v>0.4996666666666667</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -2737,17 +2737,29 @@
         <v>57</v>
       </c>
       <c r="E52" s="3">
-        <f t="shared" ref="E52:E53" si="0">AVERAGE(C22:E22)</f>
+        <f t="shared" ref="E52:E53" si="5">AVERAGE(C22:E22)</f>
         <v>0.30303333333333332</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
-      <c r="H52" s="3"/>
+      <c r="H52" s="3">
+        <f>AVERAGE(F22:H22)</f>
+        <v>0.99873333333333336</v>
+      </c>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
-      <c r="K52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="P52" s="1"/>
+      <c r="K52" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N52" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P52" s="1">
+        <f t="shared" si="4"/>
+        <v>0.32544166666666668</v>
+      </c>
     </row>
     <row r="53" spans="1:16">
       <c r="A53" t="s">
@@ -2757,17 +2769,29 @@
         <v>57</v>
       </c>
       <c r="E53" s="3">
-        <f t="shared" si="0"/>
-        <v>0.83300000000000007</v>
+        <f t="shared" si="5"/>
+        <v>0.80589999999999995</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
-      <c r="H53" s="3"/>
+      <c r="H53" s="3">
+        <f>AVERAGE(F23:H23)</f>
+        <v>0.97653333333333325</v>
+      </c>
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
-      <c r="K53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="P53" s="1"/>
+      <c r="K53" s="3">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="P53" s="1">
+        <f t="shared" si="4"/>
+        <v>0.44560833333333338</v>
+      </c>
     </row>
     <row r="54" spans="1:16">
       <c r="A54" t="s">
@@ -2777,28 +2801,28 @@
         <v>30</v>
       </c>
       <c r="E54" s="3">
-        <f t="shared" ref="E54:E55" si="1">AVERAGE(C24:E24)</f>
-        <v>0.94229999999999992</v>
+        <f t="shared" ref="E54:E55" si="6">AVERAGE(C24:E24)</f>
+        <v>0.99633333333333329</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
       <c r="H54" s="3">
-        <f t="shared" ref="H54:H56" si="2">AVERAGE(F24:H24)</f>
-        <v>0.32326666666666665</v>
+        <f t="shared" ref="H54:H56" si="7">AVERAGE(F24:H24)</f>
+        <v>0.99903333333333333</v>
       </c>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="3">
-        <f t="shared" ref="K54:K56" si="3">AVERAGE(I24:K24)</f>
+        <f t="shared" ref="K54:K56" si="8">AVERAGE(I24:K24)</f>
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <f t="shared" ref="N54:N56" si="4">AVERAGE(L24:N24)</f>
+        <f t="shared" ref="N54:N56" si="9">AVERAGE(L24:N24)</f>
         <v>0</v>
       </c>
       <c r="P54" s="1">
-        <f t="shared" ref="P54:P57" si="5">AVERAGE(C24:N24)</f>
-        <v>0.31639166666666663</v>
+        <f t="shared" ref="P54:P57" si="10">AVERAGE(C24:N24)</f>
+        <v>0.49884166666666668</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -2809,28 +2833,28 @@
         <v>35</v>
       </c>
       <c r="E55" s="3">
-        <f t="shared" si="1"/>
-        <v>0.99613333333333332</v>
+        <f t="shared" si="6"/>
+        <v>0.99873333333333336</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="3">
-        <f t="shared" si="2"/>
-        <v>0.33253333333333335</v>
+        <f t="shared" si="7"/>
+        <v>0.99906666666666666</v>
       </c>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N55" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P55" s="1">
-        <f t="shared" si="5"/>
-        <v>0.33216666666666667</v>
+        <f t="shared" si="10"/>
+        <v>0.49945000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -2846,22 +2870,22 @@
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
       <c r="H56" s="3">
-        <f t="shared" si="2"/>
-        <v>0.3328666666666667</v>
+        <f t="shared" si="7"/>
+        <v>0.99853333333333338</v>
       </c>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="3">
-        <f t="shared" si="3"/>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="N56" s="3">
-        <f t="shared" si="4"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="P56" s="1">
-        <f t="shared" si="5"/>
-        <v>0.33298333333333335</v>
+        <f t="shared" si="10"/>
+        <v>0.49959166666666666</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -2873,13 +2897,13 @@
       </c>
       <c r="E57" s="3">
         <f>AVERAGE(C27:E27)</f>
-        <v>0.9996666666666667</v>
+        <v>0.99920000000000009</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
       <c r="H57" s="3">
         <f>AVERAGE(F27:H27)</f>
-        <v>0.33236666666666664</v>
+        <v>0.99776666666666669</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -2892,8 +2916,8 @@
         <v>0</v>
       </c>
       <c r="P57" s="1">
-        <f t="shared" si="5"/>
-        <v>0.33300833333333335</v>
+        <f t="shared" si="10"/>
+        <v>0.49924166666666675</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -4532,10 +4556,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D25"/>
+      <selection activeCell="A3" sqref="A3:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4545,7 +4569,358 @@
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.99480000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.98919999999999997</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.98919999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.99219999999999997</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.99219999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.99760000000000004</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.99760000000000004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.96950000000000003</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.96950000000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4557,10 +4932,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D25"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4570,7 +4945,358 @@
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.96050000000000002</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.96050000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.99029999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">

--- a/pub/Operations/ServiceLevelAgreements/2013.xlsx
+++ b/pub/Operations/ServiceLevelAgreements/2013.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23515"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="0" windowWidth="25600" windowHeight="19360" tabRatio="654"/>
+    <workbookView xWindow="2500" yWindow="0" windowWidth="25600" windowHeight="19360" tabRatio="654"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="65">
   <si>
     <t>Resource/Name</t>
   </si>
@@ -218,6 +218,15 @@
   <si>
     <t>Oasis-replica</t>
   </si>
+  <si>
+    <t>OSG_XSEDE</t>
+  </si>
+  <si>
+    <t>Submit Node</t>
+  </si>
+  <si>
+    <t>Discontinued</t>
+  </si>
 </sst>
 </file>
 
@@ -265,8 +274,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="19">
+  <cellStyleXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -297,7 +312,7 @@
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="19">
+  <cellStyles count="25">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -307,6 +322,9 @@
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -316,6 +334,9 @@
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -648,7 +669,7 @@
   <dimension ref="A1:P58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:XFD22"/>
+      <selection activeCell="P38" sqref="P38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -734,27 +755,27 @@
       </c>
       <c r="I3" s="3">
         <f>Jul!C3</f>
-        <v>0</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="J3" s="3">
         <f>Aug!C3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" s="3">
         <f>Sep!C3</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3" s="3">
         <f>Oct!C3</f>
-        <v>0</v>
+        <v>0.99939999999999996</v>
       </c>
       <c r="M3" s="3">
         <f>Nov!C3</f>
-        <v>0</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="N3" s="3">
         <f>Dec!C3</f>
-        <v>0</v>
+        <v>0.99960000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -790,27 +811,27 @@
       </c>
       <c r="I4" s="3">
         <f>Jul!C4</f>
-        <v>0</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="J4" s="3">
         <f>Aug!C4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="3">
         <f>Sep!C4</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="3">
         <f>Oct!C4</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="M4" s="3">
         <f>Nov!C4</f>
-        <v>0</v>
+        <v>0.98440000000000005</v>
       </c>
       <c r="N4" s="3">
         <f>Dec!C4</f>
-        <v>0</v>
+        <v>0.98440000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -846,27 +867,27 @@
       </c>
       <c r="I5" s="3">
         <f>Jul!C5</f>
-        <v>0</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="J5" s="3">
         <f>Aug!C5</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="3">
         <f>Sep!C5</f>
-        <v>0</v>
+        <v>0.99480000000000002</v>
       </c>
       <c r="L5" s="3">
         <f>Oct!C5</f>
-        <v>0</v>
+        <v>0.99919999999999998</v>
       </c>
       <c r="M5" s="3">
         <f>Nov!C5</f>
-        <v>0</v>
+        <v>0.99150000000000005</v>
       </c>
       <c r="N5" s="3">
         <f>Dec!C5</f>
-        <v>0</v>
+        <v>0.99150000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -902,27 +923,27 @@
       </c>
       <c r="I6" s="3">
         <f>Jul!C6</f>
-        <v>0</v>
+        <v>0.98550000000000004</v>
       </c>
       <c r="J6" s="3">
         <f>Aug!C6</f>
-        <v>0</v>
+        <v>0.99770000000000003</v>
       </c>
       <c r="K6" s="3">
         <f>Sep!C6</f>
-        <v>0</v>
+        <v>0.99</v>
       </c>
       <c r="L6" s="3">
         <f>Oct!C6</f>
-        <v>0</v>
+        <v>0.96140000000000003</v>
       </c>
       <c r="M6" s="3">
         <f>Nov!C6</f>
-        <v>0</v>
+        <v>0.9748</v>
       </c>
       <c r="N6" s="3">
         <f>Dec!C6</f>
-        <v>0</v>
+        <v>0.9748</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -953,32 +974,32 @@
         <v>0.99980000000000002</v>
       </c>
       <c r="H7" s="3">
-        <f>Jun!C7</f>
+        <f>Jun!C8</f>
         <v>0.99960000000000004</v>
       </c>
       <c r="I7" s="3">
         <f>Jul!C7</f>
-        <v>0</v>
+        <v>0.98980000000000001</v>
       </c>
       <c r="J7" s="3">
         <f>Aug!C7</f>
-        <v>0</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="K7" s="3">
         <f>Sep!C7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="3">
         <f>Oct!C7</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="3">
         <f>Nov!C7</f>
-        <v>0</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="N7" s="3">
         <f>Dec!C7</f>
-        <v>0</v>
+        <v>0.99960000000000004</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -1010,31 +1031,31 @@
       </c>
       <c r="H8" s="3">
         <f>Jun!C8</f>
-        <v>0.99950000000000006</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="I8" s="3">
         <f>Jul!C8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="3">
         <f>Aug!C8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="3">
         <f>Sep!C8</f>
-        <v>0</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="L8" s="3">
         <f>Oct!C8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="3">
         <f>Nov!C8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="3">
         <f>Dec!C8</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1070,27 +1091,27 @@
       </c>
       <c r="I9" s="3">
         <f>Jul!C9</f>
-        <v>0</v>
+        <v>0.98980000000000001</v>
       </c>
       <c r="J9" s="3">
         <f>Aug!C9</f>
-        <v>0</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="K9" s="3">
         <f>Sep!C9</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9" s="3">
         <f>Oct!C9</f>
-        <v>0</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="M9" s="3">
         <f>Nov!C9</f>
-        <v>0</v>
+        <v>0.99990000000000001</v>
       </c>
       <c r="N9" s="3">
         <f>Dec!C9</f>
-        <v>0</v>
+        <v>0.99990000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1126,27 +1147,27 @@
       </c>
       <c r="I10" s="3">
         <f>Jul!C10</f>
-        <v>0</v>
+        <v>0.9899</v>
       </c>
       <c r="J10" s="3">
         <f>Aug!C10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="3">
         <f>Sep!C10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="3">
         <f>Oct!C10</f>
-        <v>0</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="M10" s="3">
         <f>Nov!C10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N10" s="3">
         <f>Dec!C10</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1182,27 +1203,27 @@
       </c>
       <c r="I11" s="3">
         <f>Jul!C11</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="J11" s="3">
         <f>Aug!C11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="3">
         <f>Sep!C11</f>
-        <v>0</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="L11" s="3">
         <f>Oct!C11</f>
-        <v>0</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="M11" s="3">
         <f>Nov!C11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="3">
         <f>Dec!C11</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1238,27 +1259,27 @@
       </c>
       <c r="I12" s="3">
         <f>Jul!C12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12" s="3">
         <f>Aug!C12</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="K12" s="3">
         <f>Sep!C12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12" s="3">
         <f>Oct!C12</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="M12" s="3">
         <f>Nov!C12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="3">
         <f>Dec!C12</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1294,27 +1315,27 @@
       </c>
       <c r="I13" s="3">
         <f>Jul!C13</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="J13" s="3">
         <f>Aug!C13</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="3">
         <f>Sep!C13</f>
-        <v>0</v>
+        <v>0.99860000000000004</v>
       </c>
       <c r="L13" s="3">
         <f>Oct!C13</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="M13" s="3">
         <f>Nov!C13</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="N13" s="3">
         <f>Dec!C13</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1350,27 +1371,27 @@
       </c>
       <c r="I14" s="3">
         <f>Jul!C14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="3">
         <f>Aug!C14</f>
-        <v>0</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="K14" s="3">
         <f>Sep!C14</f>
-        <v>0</v>
+        <v>0.99980000000000002</v>
       </c>
       <c r="L14" s="3">
         <f>Oct!C14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="3">
         <f>Nov!C14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N14" s="3">
         <f>Dec!C14</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1406,27 +1427,27 @@
       </c>
       <c r="I15" s="3">
         <f>Jul!C15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J15" s="3">
         <f>Aug!C15</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="K15" s="3">
         <f>Sep!C15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="3">
         <f>Oct!C15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="3">
         <f>Nov!C15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N15" s="3">
         <f>Dec!C15</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1462,27 +1483,27 @@
       </c>
       <c r="I16" s="3">
         <f>Jul!C16</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="J16" s="3">
         <f>Aug!C16</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="3">
         <f>Sep!C16</f>
-        <v>0</v>
+        <v>0.99860000000000004</v>
       </c>
       <c r="L16" s="3">
         <f>Oct!C16</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="M16" s="3">
         <f>Nov!C16</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="N16" s="3">
         <f>Dec!C16</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="17" spans="1:16">
@@ -1518,27 +1539,27 @@
       </c>
       <c r="I17" s="3">
         <f>Jul!C17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" s="3">
         <f>Aug!C17</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="3">
         <f>Sep!C17</f>
-        <v>0</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="L17" s="3">
         <f>Oct!C17</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="M17" s="3">
         <f>Nov!C17</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="N17" s="3">
         <f>Dec!C17</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="18" spans="1:16">
@@ -1574,27 +1595,27 @@
       </c>
       <c r="I18" s="3">
         <f>Jul!C18</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="J18" s="3">
         <f>Aug!C18</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="3">
         <f>Sep!C18</f>
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="L18" s="3">
         <f>Oct!C18</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="M18" s="3">
         <f>Nov!C18</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="N18" s="3">
         <f>Dec!C18</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:16">
@@ -1630,27 +1651,27 @@
       </c>
       <c r="I19" s="3">
         <f>Jul!C19</f>
-        <v>0</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="J19" s="3">
         <f>Aug!C19</f>
-        <v>0</v>
+        <v>0.99819999999999998</v>
       </c>
       <c r="K19" s="3">
         <f>Sep!C19</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="L19" s="3">
         <f>Oct!C19</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="M19" s="3">
         <f>Nov!C19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N19" s="3">
         <f>Dec!C19</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1686,27 +1707,27 @@
       </c>
       <c r="I20" s="3">
         <f>Jul!C20</f>
-        <v>0</v>
+        <v>0.98760000000000003</v>
       </c>
       <c r="J20" s="3">
         <f>Aug!C20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="3">
         <f>Sep!C20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L20" s="3">
         <f>Oct!C20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="3">
         <f>Nov!C20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="3">
         <f>Dec!C20</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1742,27 +1763,27 @@
       </c>
       <c r="I21" s="3">
         <f>Jul!C21</f>
-        <v>0</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="J21" s="3">
         <f>Aug!C21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="3">
         <f>Sep!C21</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="L21" s="3">
         <f>Oct!C21</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="3">
         <f>Nov!C21</f>
-        <v>0</v>
+        <v>0.999</v>
       </c>
       <c r="N21" s="3">
         <f>Dec!C21</f>
-        <v>0</v>
+        <v>0.999</v>
       </c>
     </row>
     <row r="22" spans="1:16">
@@ -1798,27 +1819,27 @@
       </c>
       <c r="I22" s="3">
         <f>Jul!C22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="3">
         <f>Aug!C22</f>
-        <v>0</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="K22" s="3">
         <f>Sep!C22</f>
-        <v>0</v>
+        <v>0.99570000000000003</v>
       </c>
       <c r="L22" s="3">
         <f>Oct!C22</f>
-        <v>0</v>
+        <v>0.99970000000000003</v>
       </c>
       <c r="M22" s="3">
         <f>Nov!C22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N22" s="3">
         <f>Dec!C22</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1854,27 +1875,27 @@
       </c>
       <c r="I23" s="3">
         <f>Jul!C23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J23" s="3">
         <f>Aug!C23</f>
-        <v>0</v>
+        <v>0.99239999999999995</v>
       </c>
       <c r="K23" s="3">
         <f>Sep!C23</f>
-        <v>0</v>
+        <v>0.94679999999999997</v>
       </c>
       <c r="L23" s="3">
         <f>Oct!C23</f>
-        <v>0</v>
+        <v>0.99929999999999997</v>
       </c>
       <c r="M23" s="3">
         <f>Nov!C23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N23" s="3">
         <f>Dec!C23</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:16">
@@ -1910,27 +1931,27 @@
       </c>
       <c r="I24" s="3">
         <f>Jul!C24</f>
-        <v>0</v>
+        <v>0.97030000000000005</v>
       </c>
       <c r="J24" s="3">
         <f>Aug!C24</f>
-        <v>0</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="K24" s="3">
         <f>Sep!C24</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="L24" s="3">
         <f>Oct!C24</f>
-        <v>0</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="M24" s="3">
         <f>Nov!C24</f>
-        <v>0</v>
+        <v>0.99519999999999997</v>
       </c>
       <c r="N24" s="3">
         <f>Dec!C24</f>
-        <v>0</v>
+        <v>0.99519999999999997</v>
       </c>
     </row>
     <row r="25" spans="1:16">
@@ -1966,27 +1987,27 @@
       </c>
       <c r="I25" s="3">
         <f>Jul!C25</f>
-        <v>0</v>
+        <v>0.99909999999999999</v>
       </c>
       <c r="J25" s="3">
         <f>Aug!C25</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="K25" s="3">
         <f>Sep!C25</f>
-        <v>0</v>
+        <v>0.99709999999999999</v>
       </c>
       <c r="L25" s="3">
         <f>Oct!C25</f>
-        <v>0</v>
+        <v>0.99860000000000004</v>
       </c>
       <c r="M25" s="3">
         <f>Nov!C25</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="N25" s="3">
         <f>Dec!C25</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="26" spans="1:16">
@@ -2022,19 +2043,19 @@
       </c>
       <c r="I26" s="3">
         <f>Jul!C26</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="J26" s="3">
         <f>Aug!C26</f>
-        <v>0</v>
+        <v>0.99719999999999998</v>
       </c>
       <c r="K26" s="3">
         <f>Sep!C26</f>
-        <v>0</v>
+        <v>0.99809999999999999</v>
       </c>
       <c r="L26" s="3">
         <f>Oct!C26</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="M26" s="3">
         <f>Nov!C26</f>
@@ -2078,27 +2099,27 @@
       </c>
       <c r="I27" s="3">
         <f>Jul!C27</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="J27" s="3">
         <f>Aug!C27</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="K27" s="3">
         <f>Sep!C27</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="L27" s="3">
         <f>Oct!C27</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" s="3">
         <f>Nov!C27</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="N27" s="3">
         <f>Dec!C27</f>
-        <v>0</v>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="31" spans="1:16">
@@ -2119,7 +2140,7 @@
         <v>56</v>
       </c>
       <c r="P31">
-        <v>2012</v>
+        <v>2013</v>
       </c>
     </row>
     <row r="33" spans="1:16">
@@ -2136,22 +2157,22 @@
       <c r="F33" s="4"/>
       <c r="G33" s="4"/>
       <c r="H33" s="3">
-        <f t="shared" ref="H33:H53" si="1">AVERAGE(F3:H3)</f>
+        <f t="shared" ref="H33:H50" si="1">AVERAGE(F3:H3)</f>
         <v>0.99980000000000002</v>
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="3">
         <f t="shared" ref="K33:K53" si="2">AVERAGE(I3:K3)</f>
-        <v>0</v>
+        <v>0.99973333333333336</v>
       </c>
       <c r="N33" s="3">
         <f t="shared" ref="N33:N53" si="3">AVERAGE(L3:N3)</f>
-        <v>0</v>
+        <v>0.99953333333333338</v>
       </c>
       <c r="P33" s="1">
         <f t="shared" ref="P33:P53" si="4">AVERAGE(C3:N3)</f>
-        <v>0.49990000000000001</v>
+        <v>0.9997166666666667</v>
       </c>
     </row>
     <row r="34" spans="1:16">
@@ -2175,15 +2196,15 @@
       <c r="J34" s="4"/>
       <c r="K34" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.98966666666666658</v>
       </c>
       <c r="N34" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.98943333333333339</v>
       </c>
       <c r="P34" s="1">
         <f t="shared" si="4"/>
-        <v>0.49746666666666667</v>
+        <v>0.9922416666666668</v>
       </c>
     </row>
     <row r="35" spans="1:16">
@@ -2207,15 +2228,15 @@
       <c r="J35" s="4"/>
       <c r="K35" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99796666666666667</v>
       </c>
       <c r="N35" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99406666666666654</v>
       </c>
       <c r="P35" s="1">
         <f t="shared" si="4"/>
-        <v>0.49789166666666668</v>
+        <v>0.99590000000000012</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -2239,15 +2260,15 @@
       <c r="J36" s="4"/>
       <c r="K36" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99106666666666676</v>
       </c>
       <c r="N36" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.97033333333333338</v>
       </c>
       <c r="P36" s="1">
         <f t="shared" si="4"/>
-        <v>0.49534999999999996</v>
+        <v>0.98569999999999991</v>
       </c>
     </row>
     <row r="37" spans="1:16">
@@ -2271,15 +2292,15 @@
       <c r="J37" s="4"/>
       <c r="K37" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99653333333333338</v>
       </c>
       <c r="N37" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99973333333333336</v>
       </c>
       <c r="P37" s="1">
         <f t="shared" si="4"/>
-        <v>0.49984166666666668</v>
+        <v>0.99890833333333351</v>
       </c>
     </row>
     <row r="38" spans="1:16">
@@ -2297,21 +2318,21 @@
       <c r="G38" s="4"/>
       <c r="H38" s="3">
         <f t="shared" si="1"/>
-        <v>0.99980000000000002</v>
+        <v>0.99983333333333346</v>
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99993333333333334</v>
       </c>
       <c r="N38" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" s="1">
         <f t="shared" si="4"/>
-        <v>0.49986666666666668</v>
+        <v>0.9998583333333334</v>
       </c>
     </row>
     <row r="39" spans="1:16">
@@ -2335,15 +2356,15 @@
       <c r="J39" s="4"/>
       <c r="K39" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99653333333333338</v>
       </c>
       <c r="N39" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99986666666666668</v>
       </c>
       <c r="P39" s="1">
         <f t="shared" si="4"/>
-        <v>0.49985833333333335</v>
+        <v>0.99895833333333339</v>
       </c>
     </row>
     <row r="40" spans="1:16">
@@ -2367,15 +2388,15 @@
       <c r="J40" s="4"/>
       <c r="K40" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99663333333333337</v>
       </c>
       <c r="N40" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99993333333333334</v>
       </c>
       <c r="P40" s="1">
         <f t="shared" si="4"/>
-        <v>0.49976666666666664</v>
+        <v>0.9989083333333334</v>
       </c>
     </row>
     <row r="41" spans="1:16">
@@ -2399,15 +2420,15 @@
       <c r="J41" s="4"/>
       <c r="K41" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99920000000000009</v>
       </c>
       <c r="N41" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99969999999999992</v>
       </c>
       <c r="P41" s="1">
         <f t="shared" si="4"/>
-        <v>0.4996416666666666</v>
+        <v>0.99936666666666663</v>
       </c>
     </row>
     <row r="42" spans="1:16">
@@ -2431,15 +2452,15 @@
       <c r="J42" s="4"/>
       <c r="K42" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99983333333333346</v>
       </c>
       <c r="N42" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99983333333333346</v>
       </c>
       <c r="P42" s="1">
         <f t="shared" si="4"/>
-        <v>0.49925833333333336</v>
+        <v>0.99917500000000004</v>
       </c>
     </row>
     <row r="43" spans="1:16">
@@ -2463,15 +2484,15 @@
       <c r="J43" s="4"/>
       <c r="K43" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99936666666666663</v>
       </c>
       <c r="N43" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99949999999999994</v>
       </c>
       <c r="P43" s="1">
         <f t="shared" si="4"/>
-        <v>0.49964166666666671</v>
+        <v>0.99935833333333324</v>
       </c>
     </row>
     <row r="44" spans="1:16">
@@ -2495,15 +2516,15 @@
       <c r="J44" s="4"/>
       <c r="K44" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99986666666666668</v>
       </c>
       <c r="N44" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" s="1">
         <f t="shared" si="4"/>
-        <v>0.49958333333333343</v>
+        <v>0.99955000000000016</v>
       </c>
     </row>
     <row r="45" spans="1:16">
@@ -2527,15 +2548,15 @@
       <c r="J45" s="4"/>
       <c r="K45" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99983333333333346</v>
       </c>
       <c r="N45" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="1">
         <f t="shared" si="4"/>
-        <v>0.49975833333333336</v>
+        <v>0.9997166666666667</v>
       </c>
     </row>
     <row r="46" spans="1:16">
@@ -2559,15 +2580,15 @@
       <c r="J46" s="4"/>
       <c r="K46" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99936666666666663</v>
       </c>
       <c r="N46" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99949999999999994</v>
       </c>
       <c r="P46" s="1">
         <f t="shared" si="4"/>
-        <v>0.49954999999999999</v>
+        <v>0.99926666666666664</v>
       </c>
     </row>
     <row r="47" spans="1:16">
@@ -2591,15 +2612,15 @@
       <c r="J47" s="4"/>
       <c r="K47" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.9998999999999999</v>
       </c>
       <c r="N47" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99949999999999994</v>
       </c>
       <c r="P47" s="1">
         <f t="shared" si="4"/>
-        <v>0.49962500000000004</v>
+        <v>0.99947499999999989</v>
       </c>
     </row>
     <row r="48" spans="1:16">
@@ -2623,15 +2644,15 @@
       <c r="J48" s="4"/>
       <c r="K48" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99949999999999994</v>
       </c>
       <c r="N48" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99949999999999994</v>
       </c>
       <c r="P48" s="1">
         <f t="shared" si="4"/>
-        <v>0.49934999999999996</v>
+        <v>0.99909999999999988</v>
       </c>
     </row>
     <row r="49" spans="1:16">
@@ -2654,15 +2675,15 @@
       <c r="J49" s="4"/>
       <c r="K49" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99893333333333345</v>
       </c>
       <c r="N49" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99983333333333346</v>
       </c>
       <c r="P49" s="1">
         <f t="shared" si="4"/>
-        <v>0.49615833333333331</v>
+        <v>0.9958499999999999</v>
       </c>
     </row>
     <row r="50" spans="1:16">
@@ -2686,15 +2707,15 @@
       <c r="J50" s="4"/>
       <c r="K50" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99586666666666668</v>
       </c>
       <c r="N50" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" s="1">
         <f t="shared" si="4"/>
-        <v>0.49993333333333334</v>
+        <v>0.99890000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:16">
@@ -2718,15 +2739,15 @@
       <c r="J51" s="4"/>
       <c r="K51" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99416666666666664</v>
       </c>
       <c r="N51" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99933333333333341</v>
       </c>
       <c r="P51" s="1">
         <f t="shared" si="4"/>
-        <v>0.4996666666666667</v>
+        <v>0.99804166666666683</v>
       </c>
     </row>
     <row r="52" spans="1:16">
@@ -2750,15 +2771,15 @@
       <c r="J52" s="4"/>
       <c r="K52" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.99846666666666672</v>
       </c>
       <c r="N52" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.9998999999999999</v>
       </c>
       <c r="P52" s="1">
         <f t="shared" si="4"/>
-        <v>0.32544166666666668</v>
+        <v>0.8250333333333334</v>
       </c>
     </row>
     <row r="53" spans="1:16">
@@ -2782,15 +2803,15 @@
       <c r="J53" s="4"/>
       <c r="K53" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>0.97973333333333334</v>
       </c>
       <c r="N53" s="3">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>0.99976666666666658</v>
       </c>
       <c r="P53" s="1">
         <f t="shared" si="4"/>
-        <v>0.44560833333333338</v>
+        <v>0.94048333333333334</v>
       </c>
     </row>
     <row r="54" spans="1:16">
@@ -2814,15 +2835,15 @@
       <c r="J54" s="4"/>
       <c r="K54" s="3">
         <f t="shared" ref="K54:K56" si="8">AVERAGE(I24:K24)</f>
-        <v>0</v>
+        <v>0.98963333333333336</v>
       </c>
       <c r="N54" s="3">
         <f t="shared" ref="N54:N56" si="9">AVERAGE(L24:N24)</f>
-        <v>0</v>
+        <v>0.99650000000000005</v>
       </c>
       <c r="P54" s="1">
         <f t="shared" ref="P54:P57" si="10">AVERAGE(C24:N24)</f>
-        <v>0.49884166666666668</v>
+        <v>0.99537500000000012</v>
       </c>
     </row>
     <row r="55" spans="1:16">
@@ -2846,15 +2867,15 @@
       <c r="J55" s="4"/>
       <c r="K55" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>0.99856666666666671</v>
       </c>
       <c r="N55" s="3">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>0.99920000000000009</v>
       </c>
       <c r="P55" s="1">
         <f t="shared" si="10"/>
-        <v>0.49945000000000001</v>
+        <v>0.99889166666666662</v>
       </c>
     </row>
     <row r="56" spans="1:16">
@@ -2877,15 +2898,13 @@
       <c r="J56" s="4"/>
       <c r="K56" s="3">
         <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="N56" s="3">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="P56" s="1">
-        <f t="shared" si="10"/>
-        <v>0.49959166666666666</v>
+        <v>0.99826666666666675</v>
+      </c>
+      <c r="N56" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P56" s="1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="57" spans="1:16">
@@ -2909,15 +2928,15 @@
       <c r="J57" s="4"/>
       <c r="K57" s="3">
         <f>AVERAGE(I27:K27)</f>
-        <v>0</v>
+        <v>0.99949999999999994</v>
       </c>
       <c r="N57" s="3">
         <f>AVERAGE(L27:N27)</f>
-        <v>0</v>
+        <v>0.9996666666666667</v>
       </c>
       <c r="P57" s="1">
         <f t="shared" si="10"/>
-        <v>0.49924166666666675</v>
+        <v>0.99903333333333333</v>
       </c>
     </row>
     <row r="58" spans="1:16">
@@ -2942,10 +2961,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D25"/>
+      <selection activeCell="A3" sqref="A3:D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2955,7 +2974,372 @@
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.99480000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.99480000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.99</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.99570000000000003</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.99570000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.94679999999999997</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.94679999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.99709999999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.99709999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.996</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.996</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -2968,10 +3352,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D25"/>
+      <selection activeCell="A3" sqref="A3:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2981,7 +3365,386 @@
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.99939999999999996</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.99939999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.99919999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.96140000000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.96140000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.99929999999999997</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.99929999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.99860000000000004</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.99860000000000004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="2">
+        <v>1</v>
+      </c>
+      <c r="D27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.92769999999999997</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.92769999999999997</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.90869999999999995</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.90869999999999995</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -2993,10 +3756,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D25"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3006,7 +3769,366 @@
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.98440000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.99150000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.9748</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.9748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.99519999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -3018,10 +4140,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D26"/>
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3031,7 +4153,366 @@
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.98440000000000005</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.98440000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.99150000000000005</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.99150000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.9748</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.9748</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.99960000000000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.99990000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.999</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.99519999999999997</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.99519999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.99809999999999999</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.99809999999999999</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -4935,7 +6416,7 @@
   <dimension ref="A3:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5007,13 +6488,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
-        <v>0.99960000000000004</v>
+        <v>0.99950000000000006</v>
       </c>
       <c r="D7" s="1">
-        <v>0.99960000000000004</v>
+        <v>0.99950000000000006</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5021,13 +6502,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1">
-        <v>0.99950000000000006</v>
+        <v>0.99960000000000004</v>
       </c>
       <c r="D8" s="1">
-        <v>0.99950000000000006</v>
+        <v>0.99960000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -5298,6 +6779,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -5308,10 +6790,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D26"/>
+      <selection activeCell="A3" sqref="A3:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5321,7 +6803,358 @@
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.99919999999999998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.99919999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.96899999999999997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.98550000000000004</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.98550000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.98980000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.98980000000000001</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.98980000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.9899</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0.9899</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0.98760000000000003</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0.98760000000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0.98299999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.97030000000000005</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.97030000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
@@ -5333,10 +7166,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:D25"/>
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5346,8 +7179,360 @@
     <col min="3" max="3" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.83203125" bestFit="1" customWidth="1"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.99770000000000003</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.99770000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.99980000000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0.99819999999999998</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0.99819999999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.99970000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>57</v>
+      </c>
+      <c r="B23" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0.99239999999999995</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0.99239999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0.99909999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.99719999999999998</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.99719999999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.99950000000000006</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
